--- a/labelling_bugs/cxx-labels.xlsx
+++ b/labelling_bugs/cxx-labels.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grace/Documents/GitHub/IT1/labelling_bugs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA32848-52F4-8E49-ABCC-E9DB222A24BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE26FEED-C766-684D-ACEB-DE930BE2CBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="1040" windowWidth="27040" windowHeight="16860" xr2:uid="{583832E1-2D0F-764D-AA07-1A858F394E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$25</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="134">
   <si>
     <t>id</t>
   </si>
@@ -60,70 +59,7 @@
     <t>Symptom</t>
   </si>
   <si>
-    <t>Cause</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Buildin types</t>
-  </si>
-  <si>
-    <t>Shared type</t>
-  </si>
-  <si>
     <t>Lifetime</t>
-  </si>
-  <si>
-    <t>Namespace</t>
-  </si>
-  <si>
-    <t>Reference/Pointer</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>Compatible Issue:Cross-compile</t>
-  </si>
-  <si>
-    <t>Tool Functionality Issues</t>
-  </si>
-  <si>
-    <t>macro not functional</t>
-  </si>
-  <si>
-    <t>unsafe expection handling</t>
-  </si>
-  <si>
-    <t>unsafe initialization</t>
-  </si>
-  <si>
-    <t>ignored attirbute</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Duplicated Const</t>
-  </si>
-  <si>
-    <t>Missing include file</t>
-  </si>
-  <si>
-    <t>Missing definition</t>
-  </si>
-  <si>
-    <t>Misplaced Comments</t>
-  </si>
-  <si>
-    <t>Wrong function signaure</t>
-  </si>
-  <si>
-    <t>FFI safety</t>
-  </si>
-  <si>
-    <t>Incorrct Namespace Scope</t>
   </si>
   <si>
     <t>Compilation Error</t>
@@ -511,7 +447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -523,13 +459,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -611,12 +540,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -626,20 +552,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -669,383 +595,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="sbrocket">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216DDB2F-1E00-5FA0-5A62-47CA23B0BC7B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10934700" y="46215300"/>
-          <a:ext cx="508000" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="dtolnay">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE9E8F8-8870-399F-39E4-0EAB8144956F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10934700" y="50139600"/>
-          <a:ext cx="508000" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="sbrocket">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCF6700-85E6-6D80-C95D-061C38B07AB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10934700" y="53073300"/>
-          <a:ext cx="508000" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="sbrocket">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3485092-AF78-A648-AF6E-7B642D3B6AB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5054600" y="18796000"/>
-          <a:ext cx="508000" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="dtolnay">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6843206-163C-D34C-A136-9B50FAE87C46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5054600" y="22720300"/>
-          <a:ext cx="508000" cy="508001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="sbrocket">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12265C7A-A10C-A74E-9FB5-1224AEEFBBDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5054600" y="25628600"/>
-          <a:ext cx="508000" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1368,7 +917,7 @@
   <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1379,11 +928,11 @@
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="13" customWidth="1"/>
     <col min="8" max="9" width="22.5" customWidth="1"/>
-    <col min="10" max="11" width="24.33203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="11" style="4"/>
-    <col min="13" max="13" width="25.33203125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="24.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11" style="3"/>
+    <col min="13" max="13" width="25.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -1394,28 +943,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>137</v>
+      <c r="H1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1429,25 +978,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>139</v>
+        <v>66</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -1458,25 +1007,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -1487,25 +1036,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>141</v>
+        <v>70</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1516,28 +1065,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>70</v>
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -1548,28 +1097,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>96</v>
+        <v>74</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -1580,25 +1129,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>142</v>
+        <v>76</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -1609,19 +1158,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>143</v>
+        <v>78</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1634,22 +1183,22 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>74</v>
+        <v>18</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -1660,25 +1209,25 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>144</v>
+        <v>82</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -1689,25 +1238,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>145</v>
+        <v>84</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -1718,25 +1267,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>146</v>
+        <v>86</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -1747,22 +1296,22 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>147</v>
+        <v>88</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>75</v>
+        <v>19</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -1773,28 +1322,28 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>148</v>
+        <v>90</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>76</v>
+        <v>33</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -1805,28 +1354,28 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>77</v>
+        <v>92</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>78</v>
+      <c r="J15" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -1837,22 +1386,22 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>79</v>
+        <v>93</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>80</v>
+        <v>22</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1863,22 +1412,22 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>28</v>
+        <v>95</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -1889,19 +1438,19 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>119</v>
+        <v>97</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>46</v>
+        <v>129</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="136" x14ac:dyDescent="0.2">
@@ -1912,28 +1461,28 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>151</v>
+        <v>99</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>81</v>
+        <v>31</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1944,28 +1493,28 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>83</v>
+      <c r="J20" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1976,28 +1525,28 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>152</v>
+        <v>103</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>84</v>
+        <v>32</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -2008,28 +1557,28 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>153</v>
+        <v>105</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>85</v>
+      <c r="J22" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -2040,25 +1589,25 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>154</v>
+        <v>107</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -2069,23 +1618,23 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -2096,264 +1645,264 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="27" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="8:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="35" spans="8:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="39" spans="8:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="71" spans="8:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
     </row>
     <row r="75" spans="8:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
     </row>
     <row r="90" spans="8:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
     </row>
     <row r="97" spans="8:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
     </row>
     <row r="104" spans="8:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
     </row>
     <row r="107" spans="8:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
     </row>
     <row r="108" spans="8:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M25" xr:uid="{3D3FE16A-7637-A34C-A53C-E2D052EEC9D0}"/>
@@ -2392,188 +1941,6 @@
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000 SMU Classification: Restricted&amp;1#_x000D_</oddHeader>
   </headerFooter>
-  <drawing r:id="rId29"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B48D97C-3E72-F745-8822-B5FDF3900DBF}">
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000 SMU Classification: Restricted&amp;1#_x000D_</oddHeader>
-  </headerFooter>
 </worksheet>
 </file>
 
